--- a/Case/CS4/Blaine Kitchenware, Inc. Capital Structure.xlsx
+++ b/Case/CS4/Blaine Kitchenware, Inc. Capital Structure.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanbaep2/Desktop/FIN521/Case/CS4/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="14955" windowHeight="8400"/>
+    <workbookView xWindow="21900" yWindow="940" windowWidth="16740" windowHeight="11540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Exhibit 1" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,15 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Exhibit 2'!$A$52:$G$79</definedName>
     <definedName name="size_factor">'[1]Balance Sheet'!$C$11</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -347,7 +360,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="9">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -359,7 +372,7 @@
     <numFmt numFmtId="168" formatCode="0.00\x"/>
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color theme="1"/>
@@ -474,27 +487,27 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,16 +515,16 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -521,7 +534,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -529,33 +542,33 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -564,7 +577,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -572,10 +585,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -703,11 +716,16 @@
       <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Balance Sheet"/>
@@ -796,12 +814,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -828,14 +846,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -862,6 +881,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1037,20 +1057,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:R115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="18.75">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="str">
         <f>$C$6</f>
         <v>BLAINE KITCHENWARE</v>
@@ -1064,13 +1084,13 @@
         <v>Historical Income Statement</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" ht="2.1" customHeight="1">
+    <row r="2" spans="1:18" s="3" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R2" s="6"/>
     </row>
-    <row r="3" spans="1:18" s="4" customFormat="1" ht="15.75">
+    <row r="3" spans="1:18" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="R3" s="7"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1078,7 +1098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1086,7 +1106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1094,7 +1114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1102,18 +1122,18 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
     </row>
-    <row r="51" spans="1:18" s="9" customFormat="1" ht="15.75">
+    <row r="51" spans="1:18" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="R51" s="8" t="str">
         <f>$C$9</f>
         <v>Harvard Business School Publishing</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="18.75">
+    <row r="52" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="str">
         <f>$C$6</f>
         <v>BLAINE KITCHENWARE</v>
@@ -1139,7 +1159,7 @@
         <v>Historical Income Statement</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="2.1" customHeight="1">
+    <row r="53" spans="1:18" ht="2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1159,7 +1179,7 @@
       <c r="Q53" s="3"/>
       <c r="R53" s="6"/>
     </row>
-    <row r="54" spans="1:18" ht="15.75">
+    <row r="54" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1179,12 +1199,12 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="7"/>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A55" s="65" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A56" s="53"/>
       <c r="B56" s="48"/>
       <c r="C56" s="48"/>
@@ -1193,7 +1213,7 @@
       <c r="F56" s="48"/>
       <c r="G56" s="49"/>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A57" s="58" t="s">
         <v>7</v>
       </c>
@@ -1211,7 +1231,7 @@
       </c>
       <c r="I57" s="32"/>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A58" s="50" t="s">
         <v>8</v>
       </c>
@@ -1228,7 +1248,7 @@
         <v>342251.25</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A59" s="24" t="s">
         <v>9</v>
       </c>
@@ -1245,7 +1265,7 @@
         <v>249793.5</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A60" s="50" t="s">
         <v>10</v>
       </c>
@@ -1265,7 +1285,7 @@
         <v>92457.75</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A61" s="24" t="s">
         <v>11</v>
       </c>
@@ -1282,7 +1302,7 @@
         <v>28512</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A62" s="50" t="s">
         <v>22</v>
       </c>
@@ -1302,7 +1322,7 @@
         <v>63945.75</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A63" s="24" t="s">
         <v>50</v>
       </c>
@@ -1321,7 +1341,7 @@
         <v>9914</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A64" s="50" t="s">
         <v>21</v>
       </c>
@@ -1341,7 +1361,7 @@
         <v>73859.75</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A65" s="24"/>
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
@@ -1350,7 +1370,7 @@
       <c r="F65" s="25"/>
       <c r="G65" s="39"/>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A66" s="50" t="s">
         <v>42</v>
       </c>
@@ -1370,7 +1390,7 @@
         <v>63945.75</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A67" s="24" t="s">
         <v>51</v>
       </c>
@@ -1387,7 +1407,7 @@
         <v>13505.661</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A68" s="50" t="s">
         <v>12</v>
       </c>
@@ -1407,7 +1427,7 @@
         <v>77451.410999999993</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A69" s="24" t="s">
         <v>13</v>
       </c>
@@ -1427,7 +1447,7 @@
         <v>23821.022640704323</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A70" s="50" t="s">
         <v>14</v>
       </c>
@@ -1447,7 +1467,7 @@
         <v>53630.38835929567</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A71" s="24" t="s">
         <v>52</v>
       </c>
@@ -1465,7 +1485,7 @@
         <v>28345</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A72" s="24"/>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
@@ -1474,7 +1494,7 @@
       <c r="F72" s="25"/>
       <c r="G72" s="39"/>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A73" s="24"/>
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
@@ -1484,7 +1504,7 @@
       <c r="G73" s="39"/>
       <c r="Q73" s="35"/>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A74" s="21" t="s">
         <v>15</v>
       </c>
@@ -1495,7 +1515,7 @@
       <c r="F74" s="22"/>
       <c r="G74" s="23"/>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A75" s="24" t="s">
         <v>16</v>
       </c>
@@ -1514,7 +1534,7 @@
         <v>0.11133435130863403</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A76" s="24" t="s">
         <v>17</v>
       </c>
@@ -1534,7 +1554,7 @@
         <v>0.27014583584428109</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A77" s="24" t="s">
         <v>18</v>
       </c>
@@ -1554,7 +1574,7 @@
         <v>0.18683861636736171</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A78" s="24" t="s">
         <v>19</v>
       </c>
@@ -1574,7 +1594,7 @@
         <v>0.2158056398625279</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A79" s="24" t="s">
         <v>95</v>
       </c>
@@ -1591,7 +1611,7 @@
         <v>0.30756086084350776</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A80" s="24" t="s">
         <v>20</v>
       </c>
@@ -1611,7 +1631,7 @@
         <v>0.15669888235410584</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A81" s="51" t="s">
         <v>56</v>
       </c>
@@ -1631,34 +1651,34 @@
         <v>0.52852498121220493</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A83" s="67" t="s">
         <v>96</v>
       </c>
       <c r="B83" s="48"/>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
       <c r="N91" s="40"/>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
       <c r="M96" s="38"/>
       <c r="O96" s="41"/>
     </row>
-    <row r="102" spans="6:18" s="19" customFormat="1" ht="12" customHeight="1">
+    <row r="102" spans="6:18" s="19" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R102" s="18" t="str">
         <f>$C$9</f>
         <v>Harvard Business School Publishing</v>
       </c>
     </row>
-    <row r="108" spans="6:18" s="32" customFormat="1"/>
-    <row r="109" spans="6:18" s="32" customFormat="1"/>
-    <row r="110" spans="6:18" s="32" customFormat="1"/>
-    <row r="112" spans="6:18">
+    <row r="108" spans="6:18" s="32" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="109" spans="6:18" s="32" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="110" spans="6:18" s="32" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="112" spans="6:18" x14ac:dyDescent="0.15">
       <c r="F112" s="32"/>
       <c r="G112" s="32"/>
       <c r="H112" s="32"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A115" s="32"/>
       <c r="F115" s="32"/>
       <c r="G115" s="32"/>
@@ -1670,20 +1690,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AL111"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="11"/>
+    <col min="1" max="16384" width="8.75" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="12" customFormat="1" ht="18.75">
+    <row r="1" spans="1:18" s="12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="str">
         <f>$C$6</f>
         <v>BLAINE KITCHENWARE</v>
@@ -1693,13 +1713,13 @@
         <v>Historical Balance Sheet</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="13" customFormat="1" ht="2.1" customHeight="1">
+    <row r="2" spans="1:18" s="13" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R2" s="16"/>
     </row>
-    <row r="3" spans="1:18" s="14" customFormat="1" ht="15.75">
+    <row r="3" spans="1:18" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="R3" s="17"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
@@ -1707,7 +1727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
         <v>1</v>
       </c>
@@ -1715,7 +1735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>2</v>
       </c>
@@ -1723,7 +1743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
         <v>3</v>
       </c>
@@ -1731,18 +1751,18 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
     </row>
-    <row r="51" spans="1:26" s="19" customFormat="1" ht="15.75">
+    <row r="51" spans="1:26" s="19" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="R51" s="18" t="str">
         <f>$C$9</f>
         <v>Harvard Business School Publishing</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="18.75">
+    <row r="52" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="str">
         <f>$C$6</f>
         <v>BLAINE KITCHENWARE</v>
@@ -1771,7 +1791,7 @@
         <v>Historical Balance Sheet</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="2.1" customHeight="1">
+    <row r="53" spans="1:26" ht="2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -1791,7 +1811,7 @@
       <c r="Q53" s="13"/>
       <c r="R53" s="16"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75">
+    <row r="54" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -1811,12 +1831,12 @@
       <c r="Q54" s="14"/>
       <c r="R54" s="17"/>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A55" s="65" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A56" s="53"/>
       <c r="B56" s="48"/>
       <c r="C56" s="48"/>
@@ -1836,7 +1856,7 @@
       <c r="R56" s="32"/>
       <c r="S56" s="32"/>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A57" s="58" t="s">
         <v>24</v>
       </c>
@@ -1864,7 +1884,7 @@
       <c r="R57" s="32"/>
       <c r="S57" s="32"/>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A58" s="24" t="s">
         <v>25</v>
       </c>
@@ -1894,7 +1914,7 @@
       <c r="R58" s="32"/>
       <c r="S58" s="32"/>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A59" s="24" t="s">
         <v>26</v>
       </c>
@@ -1924,7 +1944,7 @@
       <c r="R59" s="32"/>
       <c r="S59" s="32"/>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A60" s="24" t="s">
         <v>27</v>
       </c>
@@ -1952,7 +1972,7 @@
       <c r="R60" s="32"/>
       <c r="S60" s="32"/>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A61" s="24" t="s">
         <v>28</v>
       </c>
@@ -1980,7 +2000,7 @@
       <c r="R61" s="32"/>
       <c r="S61" s="32"/>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A62" s="24" t="s">
         <v>53</v>
       </c>
@@ -2015,7 +2035,7 @@
       <c r="Y62" s="32"/>
       <c r="Z62" s="32"/>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A63" s="50" t="s">
         <v>29</v>
       </c>
@@ -2053,7 +2073,7 @@
       <c r="Y63" s="32"/>
       <c r="Z63" s="32"/>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A64" s="24"/>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
@@ -2080,7 +2100,7 @@
       <c r="Y64" s="32"/>
       <c r="Z64" s="32"/>
     </row>
-    <row r="65" spans="1:38">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A65" s="24" t="s">
         <v>45</v>
       </c>
@@ -2116,7 +2136,7 @@
       <c r="Y65" s="32"/>
       <c r="Z65" s="32"/>
     </row>
-    <row r="66" spans="1:38">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A66" s="24" t="s">
         <v>30</v>
       </c>
@@ -2151,7 +2171,7 @@
       <c r="Y66" s="32"/>
       <c r="Z66" s="32"/>
     </row>
-    <row r="67" spans="1:38">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A67" s="24" t="s">
         <v>31</v>
       </c>
@@ -2186,7 +2206,7 @@
       <c r="Y67" s="32"/>
       <c r="Z67" s="32"/>
     </row>
-    <row r="68" spans="1:38">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A68" s="50" t="s">
         <v>32</v>
       </c>
@@ -2224,7 +2244,7 @@
       <c r="Y68" s="32"/>
       <c r="Z68" s="32"/>
     </row>
-    <row r="69" spans="1:38">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A69" s="66"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
@@ -2251,7 +2271,7 @@
       <c r="Y69" s="32"/>
       <c r="Z69" s="32"/>
     </row>
-    <row r="70" spans="1:38">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A70" s="58" t="s">
         <v>33</v>
       </c>
@@ -2280,7 +2300,7 @@
       <c r="Y70" s="32"/>
       <c r="Z70" s="32"/>
     </row>
-    <row r="71" spans="1:38">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A71" s="24" t="s">
         <v>34</v>
       </c>
@@ -2315,7 +2335,7 @@
       <c r="Y71" s="32"/>
       <c r="Z71" s="32"/>
     </row>
-    <row r="72" spans="1:38">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A72" s="24" t="s">
         <v>35</v>
       </c>
@@ -2350,7 +2370,7 @@
       <c r="Y72" s="32"/>
       <c r="Z72" s="32"/>
     </row>
-    <row r="73" spans="1:38">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A73" s="24" t="s">
         <v>36</v>
       </c>
@@ -2385,7 +2405,7 @@
       <c r="Y73" s="32"/>
       <c r="Z73" s="32"/>
     </row>
-    <row r="74" spans="1:38">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A74" s="50" t="s">
         <v>37</v>
       </c>
@@ -2423,7 +2443,7 @@
       <c r="Y74" s="32"/>
       <c r="Z74" s="32"/>
     </row>
-    <row r="75" spans="1:38">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A75" s="24" t="s">
         <v>54</v>
       </c>
@@ -2458,7 +2478,7 @@
       <c r="Y75" s="32"/>
       <c r="Z75" s="32"/>
     </row>
-    <row r="76" spans="1:38">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A76" s="24" t="s">
         <v>38</v>
       </c>
@@ -2493,7 +2513,7 @@
       <c r="Y76" s="32"/>
       <c r="Z76" s="32"/>
     </row>
-    <row r="77" spans="1:38">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A77" s="50" t="s">
         <v>55</v>
       </c>
@@ -2531,7 +2551,7 @@
       <c r="Y77" s="32"/>
       <c r="Z77" s="32"/>
     </row>
-    <row r="78" spans="1:38">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A78" s="24" t="s">
         <v>39</v>
       </c>
@@ -2566,7 +2586,7 @@
       <c r="Y78" s="32"/>
       <c r="Z78" s="32"/>
     </row>
-    <row r="79" spans="1:38">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A79" s="50" t="s">
         <v>40</v>
       </c>
@@ -2615,7 +2635,7 @@
       <c r="AK79" s="32"/>
       <c r="AL79" s="32"/>
     </row>
-    <row r="80" spans="1:38">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A80" s="51"/>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
@@ -2643,7 +2663,7 @@
       <c r="AK80" s="32"/>
       <c r="AL80" s="32"/>
     </row>
-    <row r="81" spans="1:38">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.15">
       <c r="G81" s="32"/>
       <c r="S81" s="32"/>
       <c r="T81" s="32"/>
@@ -2665,7 +2685,7 @@
       <c r="AK81" s="32"/>
       <c r="AL81" s="32"/>
     </row>
-    <row r="82" spans="1:38">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A82" s="48" t="s">
         <v>102</v>
       </c>
@@ -2690,7 +2710,7 @@
       <c r="AK82" s="32"/>
       <c r="AL82" s="32"/>
     </row>
-    <row r="83" spans="1:38">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A83" s="32" t="s">
         <v>103</v>
       </c>
@@ -2714,7 +2734,7 @@
       <c r="AK83" s="32"/>
       <c r="AL83" s="32"/>
     </row>
-    <row r="84" spans="1:38">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A84" s="32"/>
       <c r="B84" s="32"/>
       <c r="C84" s="32"/>
@@ -2750,7 +2770,7 @@
       <c r="AK84" s="32"/>
       <c r="AL84" s="32"/>
     </row>
-    <row r="85" spans="1:38">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A85" s="32"/>
       <c r="B85" s="32"/>
       <c r="C85" s="32"/>
@@ -2786,7 +2806,7 @@
       <c r="AK85" s="32"/>
       <c r="AL85" s="32"/>
     </row>
-    <row r="86" spans="1:38">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A86" s="32"/>
       <c r="B86" s="32"/>
       <c r="C86" s="32"/>
@@ -2822,7 +2842,7 @@
       <c r="AK86" s="32"/>
       <c r="AL86" s="32"/>
     </row>
-    <row r="87" spans="1:38">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A87" s="32"/>
       <c r="B87" s="32"/>
       <c r="C87" s="32"/>
@@ -2858,7 +2878,7 @@
       <c r="AK87" s="32"/>
       <c r="AL87" s="32"/>
     </row>
-    <row r="88" spans="1:38">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A88" s="32"/>
       <c r="B88" s="32"/>
       <c r="C88" s="32"/>
@@ -2894,7 +2914,7 @@
       <c r="AK88" s="32"/>
       <c r="AL88" s="32"/>
     </row>
-    <row r="89" spans="1:38">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A89" s="32"/>
       <c r="B89" s="32"/>
       <c r="C89" s="32"/>
@@ -2930,7 +2950,7 @@
       <c r="AK89" s="32"/>
       <c r="AL89" s="32"/>
     </row>
-    <row r="90" spans="1:38">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A90" s="32"/>
       <c r="B90" s="32"/>
       <c r="C90" s="32"/>
@@ -2966,7 +2986,7 @@
       <c r="AK90" s="32"/>
       <c r="AL90" s="32"/>
     </row>
-    <row r="91" spans="1:38">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A91" s="32"/>
       <c r="B91" s="32"/>
       <c r="C91" s="32"/>
@@ -3002,7 +3022,7 @@
       <c r="AK91" s="32"/>
       <c r="AL91" s="32"/>
     </row>
-    <row r="92" spans="1:38">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A92" s="32"/>
       <c r="B92" s="32"/>
       <c r="C92" s="32"/>
@@ -3038,7 +3058,7 @@
       <c r="AK92" s="32"/>
       <c r="AL92" s="32"/>
     </row>
-    <row r="93" spans="1:38">
+    <row r="93" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A93" s="32"/>
       <c r="B93" s="32"/>
       <c r="C93" s="32"/>
@@ -3074,7 +3094,7 @@
       <c r="AK93" s="32"/>
       <c r="AL93" s="32"/>
     </row>
-    <row r="94" spans="1:38">
+    <row r="94" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A94" s="32"/>
       <c r="B94" s="32"/>
       <c r="C94" s="32"/>
@@ -3110,7 +3130,7 @@
       <c r="AK94" s="32"/>
       <c r="AL94" s="32"/>
     </row>
-    <row r="95" spans="1:38">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A95" s="32"/>
       <c r="B95" s="32"/>
       <c r="C95" s="32"/>
@@ -3146,7 +3166,7 @@
       <c r="AK95" s="32"/>
       <c r="AL95" s="32"/>
     </row>
-    <row r="96" spans="1:38">
+    <row r="96" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A96" s="32"/>
       <c r="B96" s="32"/>
       <c r="C96" s="32"/>
@@ -3182,7 +3202,7 @@
       <c r="AK96" s="32"/>
       <c r="AL96" s="32"/>
     </row>
-    <row r="97" spans="1:38">
+    <row r="97" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A97" s="32"/>
       <c r="B97" s="32"/>
       <c r="C97" s="32"/>
@@ -3218,7 +3238,7 @@
       <c r="AK97" s="32"/>
       <c r="AL97" s="32"/>
     </row>
-    <row r="98" spans="1:38">
+    <row r="98" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A98" s="32"/>
       <c r="B98" s="32"/>
       <c r="C98" s="32"/>
@@ -3254,7 +3274,7 @@
       <c r="AK98" s="32"/>
       <c r="AL98" s="32"/>
     </row>
-    <row r="99" spans="1:38">
+    <row r="99" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A99" s="32"/>
       <c r="B99" s="32"/>
       <c r="C99" s="32"/>
@@ -3290,7 +3310,7 @@
       <c r="AK99" s="32"/>
       <c r="AL99" s="32"/>
     </row>
-    <row r="100" spans="1:38">
+    <row r="100" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A100" s="32"/>
       <c r="B100" s="32"/>
       <c r="C100" s="32"/>
@@ -3326,7 +3346,7 @@
       <c r="AK100" s="32"/>
       <c r="AL100" s="32"/>
     </row>
-    <row r="101" spans="1:38">
+    <row r="101" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A101" s="32"/>
       <c r="AB101" s="32"/>
       <c r="AC101" s="32"/>
@@ -3340,7 +3360,7 @@
       <c r="AK101" s="32"/>
       <c r="AL101" s="32"/>
     </row>
-    <row r="102" spans="1:38" ht="15.75">
+    <row r="102" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="19"/>
       <c r="B102" s="19"/>
       <c r="C102" s="19"/>
@@ -3374,7 +3394,7 @@
       <c r="AK102" s="32"/>
       <c r="AL102" s="32"/>
     </row>
-    <row r="103" spans="1:38">
+    <row r="103" spans="1:38" x14ac:dyDescent="0.15">
       <c r="AB103" s="32"/>
       <c r="AC103" s="32"/>
       <c r="AD103" s="32"/>
@@ -3387,7 +3407,7 @@
       <c r="AK103" s="32"/>
       <c r="AL103" s="32"/>
     </row>
-    <row r="104" spans="1:38">
+    <row r="104" spans="1:38" x14ac:dyDescent="0.15">
       <c r="AB104" s="32"/>
       <c r="AC104" s="32"/>
       <c r="AD104" s="32"/>
@@ -3400,7 +3420,7 @@
       <c r="AK104" s="32"/>
       <c r="AL104" s="32"/>
     </row>
-    <row r="105" spans="1:38">
+    <row r="105" spans="1:38" x14ac:dyDescent="0.15">
       <c r="AB105" s="32"/>
       <c r="AC105" s="32"/>
       <c r="AD105" s="32"/>
@@ -3413,7 +3433,7 @@
       <c r="AK105" s="32"/>
       <c r="AL105" s="32"/>
     </row>
-    <row r="106" spans="1:38">
+    <row r="106" spans="1:38" x14ac:dyDescent="0.15">
       <c r="AB106" s="32"/>
       <c r="AC106" s="32"/>
       <c r="AD106" s="32"/>
@@ -3426,7 +3446,7 @@
       <c r="AK106" s="32"/>
       <c r="AL106" s="32"/>
     </row>
-    <row r="107" spans="1:38">
+    <row r="107" spans="1:38" x14ac:dyDescent="0.15">
       <c r="AB107" s="32"/>
       <c r="AC107" s="32"/>
       <c r="AD107" s="32"/>
@@ -3439,7 +3459,7 @@
       <c r="AK107" s="32"/>
       <c r="AL107" s="32"/>
     </row>
-    <row r="108" spans="1:38">
+    <row r="108" spans="1:38" x14ac:dyDescent="0.15">
       <c r="AB108" s="32"/>
       <c r="AC108" s="32"/>
       <c r="AD108" s="32"/>
@@ -3452,7 +3472,7 @@
       <c r="AK108" s="32"/>
       <c r="AL108" s="32"/>
     </row>
-    <row r="109" spans="1:38">
+    <row r="109" spans="1:38" x14ac:dyDescent="0.15">
       <c r="AB109" s="32"/>
       <c r="AC109" s="32"/>
       <c r="AD109" s="32"/>
@@ -3465,7 +3485,7 @@
       <c r="AK109" s="32"/>
       <c r="AL109" s="32"/>
     </row>
-    <row r="110" spans="1:38">
+    <row r="110" spans="1:38" x14ac:dyDescent="0.15">
       <c r="AB110" s="32"/>
       <c r="AC110" s="32"/>
       <c r="AD110" s="32"/>
@@ -3478,7 +3498,7 @@
       <c r="AK110" s="32"/>
       <c r="AL110" s="32"/>
     </row>
-    <row r="111" spans="1:38">
+    <row r="111" spans="1:38" x14ac:dyDescent="0.15">
       <c r="AB111" s="32"/>
       <c r="AC111" s="32"/>
       <c r="AD111" s="32"/>
@@ -3498,22 +3518,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="7" width="19.83203125" customWidth="1"/>
-    <col min="8" max="8" width="3.1640625" customWidth="1"/>
-    <col min="9" max="9" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="7" width="19.75" customWidth="1"/>
+    <col min="8" max="8" width="3.25" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="31" t="s">
         <v>72</v>
       </c>
@@ -3521,7 +3541,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C4" s="42" t="s">
         <v>46</v>
       </c>
@@ -3542,7 +3562,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="31" t="s">
         <v>8</v>
       </c>
@@ -3566,7 +3586,7 @@
         <v>342251.25</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="31" t="s">
         <v>42</v>
       </c>
@@ -3589,7 +3609,7 @@
         <v>63945.75</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="31" t="s">
         <v>21</v>
       </c>
@@ -3612,7 +3632,7 @@
         <v>73859.75</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="31" t="s">
         <v>57</v>
       </c>
@@ -3636,10 +3656,10 @@
         <v>53630.388359295597</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C9" s="32"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="31" t="s">
         <v>64</v>
       </c>
@@ -3668,7 +3688,7 @@
         <v>230866</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="31" customFormat="1">
+    <row r="11" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="31" t="s">
         <v>66</v>
       </c>
@@ -3691,7 +3711,7 @@
         <v>32230.7035041667</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="31" t="s">
         <v>58</v>
       </c>
@@ -3719,7 +3739,7 @@
         <v>174321.42871721199</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="31" t="s">
         <v>59</v>
       </c>
@@ -3744,8 +3764,8 @@
         <v>592253.02257137897</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="31" customFormat="1"/>
-    <row r="15" spans="1:9" s="31" customFormat="1">
+    <row r="14" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="31" t="s">
         <v>97</v>
       </c>
@@ -3769,7 +3789,7 @@
         <v>-230866</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="31" t="s">
         <v>65</v>
       </c>
@@ -3793,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="31" t="s">
         <v>62</v>
       </c>
@@ -3817,8 +3837,8 @@
         <v>488362.87757515302</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="31" customFormat="1"/>
-    <row r="19" spans="1:9">
+    <row r="18" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="31" t="s">
         <v>60</v>
       </c>
@@ -3841,7 +3861,7 @@
         <v>959596.35416666698</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="31" t="s">
         <v>67</v>
       </c>
@@ -3865,7 +3885,7 @@
         <v>728730.35416666698</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="31" t="s">
         <v>61</v>
       </c>
@@ -3893,12 +3913,12 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="47" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="31" t="s">
         <v>68</v>
       </c>
@@ -3928,7 +3948,7 @@
         <v>2.1292262750440414</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="31" t="s">
         <v>69</v>
       </c>
@@ -3958,7 +3978,7 @@
         <v>11.396071735286036</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="31" t="s">
         <v>70</v>
       </c>
@@ -3988,7 +4008,7 @@
         <v>9.8664069965937742</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="31" t="s">
         <v>71</v>
       </c>
@@ -4018,7 +4038,7 @@
         <v>1.9649248504130967</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="31" t="s">
         <v>93</v>
       </c>
@@ -4048,7 +4068,7 @@
         <v>-0.24058657475880965</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="31" t="s">
         <v>94</v>
       </c>
@@ -4077,19 +4097,22 @@
         <v>-0.3168057961082254</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="70"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="31" t="s">
         <v>101</v>
       </c>
       <c r="B33" s="68"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="69" t="s">
         <v>98</v>
       </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C36" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4098,19 +4121,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="31" t="s">
         <v>74</v>
       </c>
@@ -4118,17 +4141,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="31" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="31" t="s">
         <v>76</v>
       </c>
@@ -4136,7 +4159,7 @@
         <v>4.5499999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="31" t="s">
         <v>100</v>
       </c>
@@ -4144,7 +4167,7 @@
         <v>4.7300000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="31" t="s">
         <v>77</v>
       </c>
@@ -4152,7 +4175,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="31" t="s">
         <v>78</v>
       </c>
@@ -4160,7 +4183,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="31" t="s">
         <v>79</v>
       </c>
@@ -4168,7 +4191,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="31" t="s">
         <v>81</v>
       </c>
@@ -4176,7 +4199,7 @@
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="31" t="s">
         <v>82</v>
       </c>
@@ -4184,7 +4207,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="31" t="s">
         <v>83</v>
       </c>
@@ -4192,7 +4215,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="31" t="s">
         <v>90</v>
       </c>
@@ -4200,7 +4223,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="31" t="s">
         <v>84</v>
       </c>
@@ -4212,7 +4235,7 @@
         <v>8.5999999999999965E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="31" t="s">
         <v>87</v>
       </c>
@@ -4224,7 +4247,7 @@
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="31" t="s">
         <v>41</v>
       </c>
@@ -4236,7 +4259,7 @@
         <v>1.3299999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="31" t="s">
         <v>85</v>
       </c>
@@ -4249,7 +4272,7 @@
         <v>1.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="31" t="s">
         <v>88</v>
       </c>
@@ -4261,7 +4284,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="31" t="s">
         <v>89</v>
       </c>
@@ -4273,10 +4296,10 @@
         <v>3.9199999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="31"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="31"/>
     </row>
   </sheetData>
